--- a/Blockgo区块链社群营销工具信息收集表.xlsx
+++ b/Blockgo区块链社群营销工具信息收集表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaohui/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaohui/Desktop/区块链项目/Blockgo项目/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>项目名称</t>
   </si>
@@ -35,9 +35,6 @@
     <t>币的名称</t>
   </si>
   <si>
-    <t>电报群地址</t>
-  </si>
-  <si>
     <t>活动开始时间</t>
   </si>
   <si>
@@ -60,38 +57,6 @@
   </si>
   <si>
     <t>项目官网</t>
-  </si>
-  <si>
-    <t>如Nework</t>
-  </si>
-  <si>
-    <t>如NKC</t>
-  </si>
-  <si>
-    <t>如https://t.me/nework_pro</t>
-  </si>
-  <si>
-    <t>如2018-02-04 18:45</t>
-  </si>
-  <si>
-    <t>如Nework Airdrops</t>
-  </si>
-  <si>
-    <t>如You can get 5 NKC for each recommended friend joined this group!</t>
-  </si>
-  <si>
-    <t>如每推荐一个好友入群，即可获得5个NKC！</t>
-  </si>
-  <si>
-    <t>如www.nework.pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">如 1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Blockgo区块链社群营销工具信息收集表</t>
@@ -113,6 +78,141 @@
     <rPh sb="20" eb="21">
       <t>biao</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电报群公共地址</t>
+    <rPh sb="3" eb="4">
+      <t>gong'gogn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Blockgo blockchain community marketing tool information collection form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telegram Group Public Link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity End Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity Start Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admission Reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Share Reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Website Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event Rule / EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event Rule / CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Website Link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example:Nework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example:NKC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example:https://t.me/nework_pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example:2018-02-04 18:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">example: 1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example: 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example:Nework Airdrops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example:You can get 5 NKC for each recommended friend joined this group!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example:每推荐一个好友入群，即可获得5个NKC！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example:www.nework.pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：Nework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：NKC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：https://t.me/nework_pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：2018-02-04 18:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">如： 1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如： 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：Nework Airdrops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：You can get 5 NKC for each recommended friend joined this group!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：每推荐一个好友入群，即可获得5个NKC！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：www.nework.pro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +260,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,17 +292,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -489,13 +592,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4"/>
     </row>
@@ -503,93 +606,188 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
